--- a/data/trans_dic/P34B01_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5479903989337362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5718732257843883</v>
+        <v>0.5718732257843884</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.4818615461653628</v>
@@ -664,7 +664,7 @@
         <v>0.5327121623370898</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5462505518534042</v>
+        <v>0.5462505518534041</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4556574458914963</v>
+        <v>0.4578383305914367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5185049513062435</v>
+        <v>0.5140790586804498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5212533919688698</v>
+        <v>0.5221148566439732</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4476904271224456</v>
+        <v>0.4511556365152993</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4917558938415056</v>
+        <v>0.4892071852051025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4889693529374044</v>
+        <v>0.4906000187685645</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4622742780944746</v>
+        <v>0.4622900268230553</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5122048218813346</v>
+        <v>0.5122151258987574</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5197235641432306</v>
+        <v>0.5167566223440428</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5181815783126568</v>
+        <v>0.5217167360995703</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5801548395986902</v>
+        <v>0.5773127926661622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6214405894528727</v>
+        <v>0.6205359042546498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.514409895775691</v>
+        <v>0.5137818654550377</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5475792183614425</v>
+        <v>0.5479934508044528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5641911703595051</v>
+        <v>0.5614919080563916</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5041025767606737</v>
+        <v>0.5049646865555423</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5531634708218635</v>
+        <v>0.5520481415750704</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5746828668742033</v>
+        <v>0.5763052161697831</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5640204946295737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6032233349173025</v>
+        <v>0.6032233349173026</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5139767341979871</v>
@@ -773,7 +773,7 @@
         <v>0.5618333896469526</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.5999377390080434</v>
+        <v>0.5999377390080433</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4046899619983405</v>
+        <v>0.4007599628981597</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5315424028413361</v>
+        <v>0.5333920681458124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5665396794593895</v>
+        <v>0.5653467631763702</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.483959182353583</v>
+        <v>0.4817990408037216</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5248160601029694</v>
+        <v>0.5254167989268046</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5730203384615148</v>
+        <v>0.5687880701485519</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4532258860083451</v>
+        <v>0.4533650011083379</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5386931158176843</v>
+        <v>0.5392072788153971</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5776808885342132</v>
+        <v>0.5785278592726405</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4695989405828591</v>
+        <v>0.4693021378844728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5979784832401182</v>
+        <v>0.5955249787013447</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6367173294191691</v>
+        <v>0.6417621268543884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5441407151773281</v>
+        <v>0.5449387075646932</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5923254365725821</v>
+        <v>0.5910951758862807</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6236936409991861</v>
+        <v>0.6205108472315258</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.499277682200962</v>
+        <v>0.4981131399111314</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5860641531291151</v>
+        <v>0.5867083057273811</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6194810508118687</v>
+        <v>0.6208519592300048</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.492978077959098</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6480555216447555</v>
+        <v>0.6480555216447554</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.4584997883984824</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.393200966594204</v>
+        <v>0.393938957260447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4573639330229158</v>
+        <v>0.4563569105061506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6473340852016355</v>
+        <v>0.650222509246464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4512188617216026</v>
+        <v>0.4557652494847279</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4573473580415247</v>
+        <v>0.4565529539806196</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6212655812438915</v>
+        <v>0.6223471965911995</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4331853731743419</v>
+        <v>0.4321547349769124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4644478902689106</v>
+        <v>0.4656180495327188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6438936324760265</v>
+        <v>0.6434960664785483</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4610448643613022</v>
+        <v>0.465170205216009</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5237027036597841</v>
+        <v>0.524124381447698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7109883440548401</v>
+        <v>0.7151772261423776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5219703435015653</v>
+        <v>0.5220525026661078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5323219916505239</v>
+        <v>0.5271832572606023</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6743216711895113</v>
+        <v>0.6768664449540011</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4822856438299951</v>
+        <v>0.4847616985037063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5170997375530392</v>
+        <v>0.5157613396323337</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6847741349102534</v>
+        <v>0.683514362603861</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5747353710366626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7297430097050054</v>
+        <v>0.7297430097050053</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.4873002220480307</v>
@@ -982,7 +982,7 @@
         <v>0.5830072886771053</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6974317360138582</v>
+        <v>0.697431736013858</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.4437195995184596</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3587783466480687</v>
+        <v>0.3585557679247827</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5244371822585564</v>
+        <v>0.5312869738901421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6980651655274334</v>
+        <v>0.6975574120814129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4401332407388365</v>
+        <v>0.4381774190874099</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5349047528296254</v>
+        <v>0.5400809957336533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6710408902369026</v>
+        <v>0.6683478538817699</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4112223308257956</v>
+        <v>0.4090169378377068</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5481789743577238</v>
+        <v>0.5474252860499164</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6926484517017152</v>
+        <v>0.693895125285801</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.453258653109178</v>
+        <v>0.4507263221712553</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6188389396699719</v>
+        <v>0.619859457487682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7617841170467842</v>
+        <v>0.762448527916449</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5398483500323942</v>
+        <v>0.5366725172961109</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6270373274961742</v>
+        <v>0.6326395636935801</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7255722942808445</v>
+        <v>0.7258334903258011</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4746306285720562</v>
+        <v>0.4758209047829419</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6119080102111453</v>
+        <v>0.6124894426497591</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7362179227131486</v>
+        <v>0.7366164364773469</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.5338691282251634</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6242956445371151</v>
+        <v>0.6242956445371149</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4700325451464438</v>
@@ -1100,7 +1100,7 @@
         <v>0.5379640322966642</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6405031698289653</v>
+        <v>0.6405031698289654</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4269759488644085</v>
+        <v>0.4289100608812557</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5258424931107999</v>
+        <v>0.5248192905706209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6395813950435769</v>
+        <v>0.6394276209468467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4790166286600108</v>
+        <v>0.475086367081057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5152202404114944</v>
+        <v>0.5163858223129473</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6088711397664684</v>
+        <v>0.6082237837478401</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4566215965645852</v>
+        <v>0.4581856476667793</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5255408872239635</v>
+        <v>0.5261135558510894</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6287571675211768</v>
+        <v>0.629139969435444</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4635961608116307</v>
+        <v>0.4643432434300631</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5595828881475631</v>
+        <v>0.5604851166741103</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.674813564160249</v>
+        <v>0.6765460409331858</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5104317542289325</v>
+        <v>0.5105709859321413</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5497086439447597</v>
+        <v>0.5508330919896481</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6378614429416868</v>
+        <v>0.6378362513170747</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4813143272941607</v>
+        <v>0.4834766832732227</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5496618398135342</v>
+        <v>0.5504085896885825</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6511704806674479</v>
+        <v>0.6512950960224382</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>475677</v>
+        <v>477953</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>584872</v>
+        <v>579880</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>258600</v>
+        <v>259027</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>500534</v>
+        <v>504408</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>619397</v>
+        <v>616186</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>301456</v>
+        <v>302462</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>999423</v>
+        <v>999457</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1222919</v>
+        <v>1222943</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>578257</v>
+        <v>574956</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>540948</v>
+        <v>544638</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>654413</v>
+        <v>651207</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>308304</v>
+        <v>307855</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>575128</v>
+        <v>574426</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>689709</v>
+        <v>690231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>347832</v>
+        <v>346168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1089854</v>
+        <v>1091718</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1320710</v>
+        <v>1318047</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>639407</v>
+        <v>641212</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>395412</v>
+        <v>391572</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>483079</v>
+        <v>484760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>541461</v>
+        <v>540321</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>529578</v>
+        <v>527214</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>528214</v>
+        <v>528819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>636708</v>
+        <v>632005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>938783</v>
+        <v>939071</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1031759</v>
+        <v>1032744</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1193995</v>
+        <v>1195746</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>458832</v>
+        <v>458542</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>543458</v>
+        <v>541228</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>608532</v>
+        <v>613353</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>595433</v>
+        <v>596306</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>596161</v>
+        <v>594923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>693013</v>
+        <v>689477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1034171</v>
+        <v>1031759</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1122489</v>
+        <v>1123722</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1280391</v>
+        <v>1283225</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>347215</v>
+        <v>347867</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>376758</v>
+        <v>375928</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>673595</v>
+        <v>676601</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>395176</v>
+        <v>399157</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>352642</v>
+        <v>352029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>648540</v>
+        <v>649669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>761905</v>
+        <v>760092</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>740710</v>
+        <v>742576</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1342176</v>
+        <v>1341348</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>407124</v>
+        <v>410767</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>431405</v>
+        <v>431752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>739832</v>
+        <v>744191</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>457140</v>
+        <v>457211</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>410452</v>
+        <v>406489</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>703925</v>
+        <v>706582</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>848265</v>
+        <v>852620</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>824680</v>
+        <v>822545</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1427390</v>
+        <v>1424764</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>180474</v>
+        <v>180362</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>265733</v>
+        <v>269204</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>681262</v>
+        <v>680767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>199264</v>
+        <v>198379</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>261942</v>
+        <v>264477</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>607675</v>
+        <v>605236</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>393029</v>
+        <v>390921</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>546204</v>
+        <v>545453</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1303218</v>
+        <v>1305564</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228000</v>
+        <v>226726</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>313566</v>
+        <v>314083</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>743447</v>
+        <v>744096</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>244409</v>
+        <v>242971</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>307059</v>
+        <v>309802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>657057</v>
+        <v>657294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>453632</v>
+        <v>454770</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>609704</v>
+        <v>610283</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1385194</v>
+        <v>1385944</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1454740</v>
+        <v>1461330</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1770660</v>
+        <v>1767215</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2218286</v>
+        <v>2217753</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1696115</v>
+        <v>1682199</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1817075</v>
+        <v>1821185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2238898</v>
+        <v>2236518</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3172564</v>
+        <v>3183431</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3623118</v>
+        <v>3627066</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4492766</v>
+        <v>4495501</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1579508</v>
+        <v>1582053</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1884273</v>
+        <v>1887311</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2340484</v>
+        <v>2346492</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1807351</v>
+        <v>1807844</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1938708</v>
+        <v>1942674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2345499</v>
+        <v>2345407</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3344127</v>
+        <v>3359151</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3789410</v>
+        <v>3794558</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4652920</v>
+        <v>4653810</v>
       </c>
     </row>
     <row r="24">
